--- a/test-data/seam-topological.xlsx
+++ b/test-data/seam-topological.xlsx
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +203,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,17 +227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -250,7 +240,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -264,14 +254,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,12 +266,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,14 +273,12 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
     <cellStyle name="着色 2" xfId="2" builtinId="33"/>
     <cellStyle name="着色 3" xfId="3" builtinId="37"/>
-    <cellStyle name="着色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="着色 5" xfId="5" builtinId="45"/>
-    <cellStyle name="着色 6" xfId="6" builtinId="49"/>
+    <cellStyle name="着色 5" xfId="4" builtinId="45"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -463,7 +439,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -752,12 +728,12 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -778,122 +754,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1000</v>
       </c>
       <c r="D2" s="3">
         <v>1000</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>1000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>1000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>237.35</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>151.02000000000001</v>
       </c>
       <c r="E3" s="3">
         <v>234.09</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>107.89</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>138.69</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>228.1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>133.07</v>
       </c>
       <c r="F4" s="3">
         <v>211.51</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>153.88</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>174.01</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>284.01</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>194.5</v>
       </c>
       <c r="G5" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>1000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1000</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +915,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -985,7 +961,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -1031,7 +1007,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1057,7 +1033,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1083,12 +1059,12 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1"/>
@@ -1109,7 +1085,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1135,23 +1111,23 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="1"/>
@@ -1159,7 +1135,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1171,7 +1147,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1183,23 +1159,23 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="1"/>
@@ -1207,10 +1183,10 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="1"/>
@@ -1219,7 +1195,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -1229,7 +1205,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1239,7 +1215,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1249,39 +1225,39 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="1"/>
@@ -1289,7 +1265,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -1299,7 +1275,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -1309,7 +1285,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1319,7 +1295,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1329,39 +1305,39 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="1"/>
@@ -1369,9 +1345,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="1"/>
@@ -1382,7 +1358,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>17</v>
@@ -1395,7 +1371,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -1408,7 +1384,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1421,7 +1397,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1434,7 +1410,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1447,25 +1423,25 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="1"/>
@@ -1473,11 +1449,11 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="1"/>
@@ -1486,10 +1462,10 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="1"/>
@@ -1499,9 +1475,9 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="1"/>
@@ -1512,7 +1488,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>23</v>
@@ -1525,7 +1501,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -1538,7 +1514,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1551,7 +1527,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1564,12 +1540,12 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F52" s="1"/>
@@ -1577,11 +1553,11 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="1"/>
@@ -1590,10 +1566,10 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="1"/>
@@ -1603,9 +1579,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="1"/>
@@ -1616,7 +1592,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>27</v>
@@ -1629,7 +1605,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
@@ -1642,7 +1618,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
@@ -1656,10 +1632,10 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="1"/>
@@ -1670,9 +1646,9 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D60" s="1"/>
@@ -1684,8 +1660,8 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
+    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B61" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="1"/>
@@ -1698,7 +1674,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>33</v>
       </c>
@@ -1712,7 +1688,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>34</v>
@@ -1726,7 +1702,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
         <v>34</v>
@@ -1740,7 +1716,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B65" s="2" t="s">
         <v>35</v>
       </c>
@@ -1754,7 +1730,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>36</v>
       </c>
@@ -1768,8 +1744,8 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="2:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="B67" s="7" t="s">
+    <row r="67" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B67" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="1"/>
@@ -1782,7 +1758,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1794,7 +1770,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1806,7 +1782,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1818,7 +1794,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>

--- a/test-data/seam-topological.xlsx
+++ b/test-data/seam-topological.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>0,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,10 +53,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,6 +163,42 @@
   <si>
     <t>0,4</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>78,209,79</t>
+  </si>
+  <si>
+    <t>92,175,95</t>
+  </si>
+  <si>
+    <t>243,73,183</t>
+  </si>
+  <si>
+    <t>108,89,82</t>
+  </si>
+  <si>
+    <t>107,119,71</t>
+  </si>
+  <si>
+    <t>92,145,69</t>
+  </si>
+  <si>
+    <t>158,143,79</t>
+  </si>
+  <si>
+    <t>220,75,222</t>
+  </si>
+  <si>
+    <t>189,73,214</t>
+  </si>
+  <si>
+    <t>214,103,68</t>
+  </si>
+  <si>
+    <t>211,201,98</t>
   </si>
 </sst>
 </file>
@@ -255,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,6 +303,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -725,13 +778,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
@@ -853,10 +914,10 @@
       <c r="B6" s="3">
         <v>1000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>1000</v>
       </c>
       <c r="E6" s="3">
@@ -878,7 +939,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>5</v>
@@ -896,10 +957,10 @@
         <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>8</v>
@@ -924,34 +985,34 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -970,34 +1031,34 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1042,8 +1103,6 @@
         <v>4</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1100,13 +1159,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1116,241 +1171,266 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="3" t="s">
-        <v>2</v>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
+      <c r="F24" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="3" t="s">
-        <v>15</v>
+      <c r="F33" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1360,8 +1440,8 @@
     </row>
     <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>17</v>
+      <c r="B38" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1373,10 +1453,10 @@
     </row>
     <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1387,10 +1467,10 @@
     <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1401,10 +1481,10 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1415,10 +1495,10 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1428,10 +1508,10 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1440,10 +1520,10 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1452,10 +1532,10 @@
     <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1464,10 +1544,10 @@
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1477,8 +1557,8 @@
     </row>
     <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
-      <c r="B47" s="3" t="s">
-        <v>17</v>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1490,10 +1570,10 @@
     </row>
     <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1501,76 +1581,80 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>25</v>
+      <c r="D50" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
-      <c r="C54" s="3" t="s">
-        <v>24</v>
+      <c r="C54" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1578,24 +1662,26 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>27</v>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1604,26 +1690,29 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B58" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B58" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1632,12 +1721,10 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1646,11 +1733,9 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
-      <c r="C60" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1660,10 +1745,8 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B61" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="61" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1674,10 +1757,8 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B62" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="62" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1688,124 +1769,6 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B64" s="1"/>
-      <c r="C64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B67" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1814,4 +1777,284 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="10">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9">
+        <v>63118247</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9">
+        <v>210109104</v>
+      </c>
+      <c r="G2" s="9">
+        <v>252101119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>224191182</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9">
+        <v>80196230</v>
+      </c>
+      <c r="E3" s="9">
+        <v>112156180</v>
+      </c>
+      <c r="F3" s="12">
+        <v>176178120</v>
+      </c>
+      <c r="G3" s="9">
+        <v>142151142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>117189149</v>
+      </c>
+      <c r="C4" s="9">
+        <v>171231153</v>
+      </c>
+      <c r="D4" s="9">
+        <v>149164168</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="9">
+        <v>120105138</v>
+      </c>
+      <c r="G4" s="9">
+        <v>163174196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>163222132</v>
+      </c>
+      <c r="C5" s="9">
+        <v>187117183</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>211120173</v>
+      </c>
+      <c r="C6" s="12">
+        <v>188218244</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="9">
+        <v>163166246</v>
+      </c>
+      <c r="F6" s="9">
+        <v>79125246</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="9">
+        <v>63118247</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9">
+        <v>210109104</v>
+      </c>
+      <c r="F14" s="9">
+        <v>252101119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9">
+        <v>224191182</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="9">
+        <v>80196230</v>
+      </c>
+      <c r="E15" s="9">
+        <v>112156180</v>
+      </c>
+      <c r="F15" s="9">
+        <v>142151142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9">
+        <v>117189149</v>
+      </c>
+      <c r="C16" s="9">
+        <v>171231153</v>
+      </c>
+      <c r="D16" s="9">
+        <v>149164168</v>
+      </c>
+      <c r="E16" s="9">
+        <v>120105138</v>
+      </c>
+      <c r="F16" s="9">
+        <v>163174196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="9">
+        <v>163222132</v>
+      </c>
+      <c r="C17" s="9">
+        <v>187117183</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9">
+        <v>211120173</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="9">
+        <v>163166246</v>
+      </c>
+      <c r="E18" s="9">
+        <v>79125246</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>